--- a/tests/data/TestExcel_test1_expected.xlsx
+++ b/tests/data/TestExcel_test1_expected.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fores\py_projects\qr_reader\tests\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fores\py_projects\qr_reader\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821804E1-7EEE-4F70-BAC0-78B71EA23A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DE846C-A654-421E-BB47-5256B7F98C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5916" yWindow="1800" windowWidth="12996" windowHeight="8880" xr2:uid="{3248A6EA-6E7D-4CC0-AA97-243416F86795}"/>
   </bookViews>
@@ -50,14 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2_32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2_31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2_33</t>
   </si>
   <si>
@@ -110,6 +102,14 @@
     <rPh sb="0" eb="2">
       <t>マツオカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_26</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -497,7 +497,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -515,90 +515,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/TestExcel_test1_expected.xlsx
+++ b/tests/data/TestExcel_test1_expected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fores\py_projects\qr_reader\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DE846C-A654-421E-BB47-5256B7F98C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC29371B-468B-4D0E-9875-AB8E87813F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5916" yWindow="1800" windowWidth="12996" windowHeight="8880" xr2:uid="{3248A6EA-6E7D-4CC0-AA97-243416F86795}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3248A6EA-6E7D-4CC0-AA97-243416F86795}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Label</t>
     <phoneticPr fontId="1"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>2_26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpdateDate</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -117,6 +121,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,8 +163,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,15 +504,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B2F9A3-0326-4D83-BC68-C9E4AA71ECAF}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,8 +525,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -523,8 +539,11 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" s="1">
+        <v>20251103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -534,8 +553,11 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3" s="1">
+        <v>20251103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -545,8 +567,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4" s="1">
+        <v>20180101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -556,8 +581,11 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5" s="1">
+        <v>20180101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -567,8 +595,11 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6" s="1">
+        <v>20180101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -578,8 +609,11 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7" s="1">
+        <v>20180101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -589,8 +623,11 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8" s="1">
+        <v>20180101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -599,6 +636,9 @@
       </c>
       <c r="C9" t="s">
         <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20180101</v>
       </c>
     </row>
   </sheetData>
